--- a/week 6/علوم/Skale(V3.6).xlsx
+++ b/week 6/علوم/Skale(V3.6).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\محمدی\week 5\علوم\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\week 6\علوم\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -692,6 +692,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,15 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2095,18 +2095,18 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2134,70 +2134,70 @@
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="53">
+      <c r="B1" s="50">
         <v>1</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="50">
         <v>2</v>
       </c>
-      <c r="D1" s="53">
+      <c r="D1" s="50">
         <v>3</v>
       </c>
-      <c r="E1" s="53">
+      <c r="E1" s="50">
         <v>4</v>
       </c>
-      <c r="F1" s="53">
+      <c r="F1" s="50">
         <v>5</v>
       </c>
-      <c r="G1" s="53">
+      <c r="G1" s="50">
         <v>6</v>
       </c>
-      <c r="H1" s="53">
+      <c r="H1" s="50">
         <v>7</v>
       </c>
-      <c r="I1" s="53">
+      <c r="I1" s="50">
         <v>8</v>
       </c>
-      <c r="J1" s="53">
+      <c r="J1" s="50">
         <v>9</v>
       </c>
-      <c r="K1" s="53">
+      <c r="K1" s="50">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="51">
+        <v>3</v>
+      </c>
+      <c r="C2" s="51">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51">
+        <v>1</v>
+      </c>
+      <c r="F2" s="51">
+        <v>1</v>
+      </c>
+      <c r="G2" s="51">
+        <v>2</v>
+      </c>
+      <c r="H2" s="51">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51">
+        <v>3</v>
+      </c>
+      <c r="J2" s="51">
+        <v>2</v>
+      </c>
+      <c r="K2" s="51">
         <v>4</v>
-      </c>
-      <c r="C2" s="54">
-        <v>4</v>
-      </c>
-      <c r="D2" s="54">
-        <v>4</v>
-      </c>
-      <c r="E2" s="54">
-        <v>1</v>
-      </c>
-      <c r="F2" s="54">
-        <v>3</v>
-      </c>
-      <c r="G2" s="54">
-        <v>1</v>
-      </c>
-      <c r="H2" s="54">
-        <v>2</v>
-      </c>
-      <c r="I2" s="54">
-        <v>4</v>
-      </c>
-      <c r="J2" s="54">
-        <v>3</v>
-      </c>
-      <c r="K2" s="54">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8042,15 +8042,15 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
@@ -8058,27 +8058,27 @@
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
@@ -11205,15 +11205,15 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
@@ -11221,27 +11221,27 @@
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
